--- a/results/scores.xlsx
+++ b/results/scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE94DC3A-81A7-4466-96BE-D8C02A7B7AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B5528-1129-40F2-9423-EA523FA41FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="3860" windowWidth="19230" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10760" yWindow="3210" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/scores.xlsx
+++ b/results/scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBDB7D2-6632-4886-BFCD-2123AA6C33A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52104C84-725C-4D05-9297-091E3650998D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="4840" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10690" yWindow="4010" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,10 +1057,10 @@
         <v>178696.913561314</v>
       </c>
       <c r="D10" s="3">
-        <v>44302</v>
+        <v>44667</v>
       </c>
       <c r="E10" s="3">
-        <v>44058</v>
+        <v>44183</v>
       </c>
       <c r="F10" s="13">
         <v>1990</v>

--- a/results/scores.xlsx
+++ b/results/scores.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F083E1FC-A57D-4628-936D-DB55D5200369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C231F-101C-4DE4-B517-0425FD6C877C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="3210" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="4840" windowWidth="22050" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Good" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>Country</t>
   </si>
@@ -219,8 +220,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -323,19 +324,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -357,11 +358,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +690,9 @@
     <col min="7" max="7" width="11.54296875" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.90625" style="9" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" customWidth="1"/>
-    <col min="10" max="12" width="8.7265625" style="12"/>
+    <col min="10" max="10" width="8.7265625" style="12"/>
+    <col min="11" max="11" width="10.54296875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="12"/>
     <col min="13" max="13" width="15.08984375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2861,4 +2873,1865 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB0EE4-0CF8-4F47-87B1-6510339B0DB3}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7">
+        <v>529686.89311268041</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44527</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>7933</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43953</v>
+      </c>
+      <c r="H2" s="10">
+        <v>54960.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>59176.05</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.98542540000000001</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.9843075</v>
+      </c>
+      <c r="L2" s="12">
+        <v>24.52664</v>
+      </c>
+      <c r="M2" s="12">
+        <v>75.91207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="23">
+        <v>6734075.0334323831</v>
+      </c>
+      <c r="D3" s="24">
+        <v>45320</v>
+      </c>
+      <c r="E3" s="24">
+        <v>44115</v>
+      </c>
+      <c r="F3" s="23">
+        <v>101716</v>
+      </c>
+      <c r="G3" s="25">
+        <v>43947</v>
+      </c>
+      <c r="H3" s="26">
+        <v>29060870</v>
+      </c>
+      <c r="I3" s="26">
+        <v>49201420</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0.97510580000000002</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0.95785299999999995</v>
+      </c>
+      <c r="L3" s="27">
+        <v>47.532719999999998</v>
+      </c>
+      <c r="M3" s="27">
+        <v>63.361280000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7">
+        <v>409418.33345003473</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45594</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44421</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2607.2637211736601</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43980</v>
+      </c>
+      <c r="H4" s="10">
+        <v>8398.7189999999991</v>
+      </c>
+      <c r="I4" s="10">
+        <v>9114.0290000000005</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.97326749999999995</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.97099069999999998</v>
+      </c>
+      <c r="L4" s="12">
+        <v>22.38137</v>
+      </c>
+      <c r="M4" s="12">
+        <v>80.4709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>53126.508961048989</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44670</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44249</v>
+      </c>
+      <c r="F5" s="7">
+        <v>641</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43951</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1380.511</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1600.953</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.96433429999999998</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.95863920000000002</v>
+      </c>
+      <c r="L5" s="12">
+        <v>30.88522</v>
+      </c>
+      <c r="M5" s="12">
+        <v>118.7958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7">
+        <v>253022.35415103001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44262</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44009</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6557</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43912</v>
+      </c>
+      <c r="H6" s="10">
+        <v>151938.29999999999</v>
+      </c>
+      <c r="I6" s="10">
+        <v>354537</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.96193010000000001</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.9111667</v>
+      </c>
+      <c r="L6" s="12">
+        <v>14.546099999999999</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1577.9490000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7">
+        <v>139331.27339980661</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44537</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2046</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43942</v>
+      </c>
+      <c r="H7" s="10">
+        <v>21198.04</v>
+      </c>
+      <c r="I7" s="10">
+        <v>26365.02</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.95181970000000005</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.94007580000000002</v>
+      </c>
+      <c r="L7" s="12">
+        <v>28.194230000000001</v>
+      </c>
+      <c r="M7" s="12">
+        <v>210.56219999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1937724.207127952</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44603</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44057</v>
+      </c>
+      <c r="F8" s="7">
+        <v>48529</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43947</v>
+      </c>
+      <c r="H8" s="10">
+        <v>9317963</v>
+      </c>
+      <c r="I8" s="10">
+        <v>13250990</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.94555699999999998</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.92257710000000004</v>
+      </c>
+      <c r="L8" s="12">
+        <v>26.58381</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1568.559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7">
+        <v>331124.21135469718</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44408</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44061</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8719</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43933</v>
+      </c>
+      <c r="H9" s="10">
+        <v>254101.4</v>
+      </c>
+      <c r="I9" s="10">
+        <v>319485.8</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.94534510000000005</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.93128149999999998</v>
+      </c>
+      <c r="L9" s="12">
+        <v>20.143969999999999</v>
+      </c>
+      <c r="M9" s="12">
+        <v>211.71680000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7">
+        <v>53056.671658869527</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44163</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44014</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1335</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43932</v>
+      </c>
+      <c r="H10" s="10">
+        <v>10735.42</v>
+      </c>
+      <c r="I10" s="10">
+        <v>10950.32</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.94333619999999996</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.94220190000000004</v>
+      </c>
+      <c r="L10" s="12">
+        <v>16.446870000000001</v>
+      </c>
+      <c r="M10" s="12">
+        <v>140.9777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>17</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="23">
+        <v>236736.9544271777</v>
+      </c>
+      <c r="D11" s="24">
+        <v>44104</v>
+      </c>
+      <c r="E11" s="24">
+        <v>43941</v>
+      </c>
+      <c r="F11" s="23">
+        <v>9222</v>
+      </c>
+      <c r="G11" s="25">
+        <v>43922</v>
+      </c>
+      <c r="H11" s="26">
+        <v>466988.1</v>
+      </c>
+      <c r="I11" s="26">
+        <v>658888.19999999995</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.93150900000000003</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0.90336380000000005</v>
+      </c>
+      <c r="L11" s="27">
+        <v>3682.0439999999999</v>
+      </c>
+      <c r="M11" s="27">
+        <v>2917.9009999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7">
+        <v>35581.360478333947</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44458</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44185</v>
+      </c>
+      <c r="F12" s="7">
+        <v>436</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43946</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1236.0309999999999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1220.6469999999999</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.92908380000000002</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.92996639999999997</v>
+      </c>
+      <c r="L12" s="12">
+        <v>51.956319999999998</v>
+      </c>
+      <c r="M12" s="12">
+        <v>124.05710000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7">
+        <v>143778.73999595261</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44835</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44273</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1155.972087139668</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43977</v>
+      </c>
+      <c r="H13" s="10">
+        <v>3705.37</v>
+      </c>
+      <c r="I13" s="10">
+        <v>3464.6039999999998</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.92881570000000002</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.93344110000000002</v>
+      </c>
+      <c r="L13" s="12">
+        <v>99.137569999999997</v>
+      </c>
+      <c r="M13" s="12">
+        <v>90.018330000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7">
+        <v>234218.42174047491</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45099</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44195</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5138</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43933</v>
+      </c>
+      <c r="H14" s="10">
+        <v>226776.7</v>
+      </c>
+      <c r="I14" s="10">
+        <v>148516.6</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.91531680000000004</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.94454079999999996</v>
+      </c>
+      <c r="L14" s="12">
+        <v>30.951000000000001</v>
+      </c>
+      <c r="M14" s="12">
+        <v>555.86710000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>15780.964206874531</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43991</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43951</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1141</v>
+      </c>
+      <c r="G15" s="5">
+        <v>43917</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4071.4749999999999</v>
+      </c>
+      <c r="I15" s="10">
+        <v>5328.7250000000004</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.91530330000000004</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.88914939999999998</v>
+      </c>
+      <c r="L15" s="12">
+        <v>23.075050000000001</v>
+      </c>
+      <c r="M15" s="12">
+        <v>34.07544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7">
+        <v>31406.853358564851</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44038</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43964</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1390</v>
+      </c>
+      <c r="G16" s="5">
+        <v>43918</v>
+      </c>
+      <c r="H16" s="10">
+        <v>11374.82</v>
+      </c>
+      <c r="I16" s="10">
+        <v>13882.59</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.91528200000000004</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.89660450000000003</v>
+      </c>
+      <c r="L16" s="12">
+        <v>383.81740000000002</v>
+      </c>
+      <c r="M16" s="12">
+        <v>476.27780000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7">
+        <v>22102.125103219951</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44189</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44053</v>
+      </c>
+      <c r="F17" s="7">
+        <v>523</v>
+      </c>
+      <c r="G17" s="5">
+        <v>43933</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1983.893</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2286.6529999999998</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.91271809999999998</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.89939809999999998</v>
+      </c>
+      <c r="L17" s="12">
+        <v>16.827059999999999</v>
+      </c>
+      <c r="M17" s="12">
+        <v>87.825810000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7">
+        <v>68670.818085280873</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44676</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44242</v>
+      </c>
+      <c r="F18" s="7">
+        <v>812</v>
+      </c>
+      <c r="G18" s="5">
+        <v>43946</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5332.9359999999997</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5450.72</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.90974549999999998</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.90775209999999995</v>
+      </c>
+      <c r="L18" s="12">
+        <v>20.548030000000001</v>
+      </c>
+      <c r="M18" s="12">
+        <v>151.0367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7">
+        <v>181368.51033612969</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44121</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43953</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6294</v>
+      </c>
+      <c r="G19" s="5">
+        <v>43918</v>
+      </c>
+      <c r="H19" s="10">
+        <v>339137.1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>449665.8</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.90697479999999997</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.87665680000000001</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1013.652</v>
+      </c>
+      <c r="M19" s="12">
+        <v>582.88580000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7">
+        <v>46394.660620476279</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44395</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44140</v>
+      </c>
+      <c r="F20" s="7">
+        <v>557</v>
+      </c>
+      <c r="G20" s="5">
+        <v>43953</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3299.799</v>
+      </c>
+      <c r="I20" s="10">
+        <v>3493.989</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.90670640000000002</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0.90121620000000002</v>
+      </c>
+      <c r="L20" s="12">
+        <v>840.72180000000003</v>
+      </c>
+      <c r="M20" s="12">
+        <v>947.02430000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7080.0401925921042</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44049</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43989</v>
+      </c>
+      <c r="F21" s="7">
+        <v>235</v>
+      </c>
+      <c r="G21" s="5">
+        <v>43917</v>
+      </c>
+      <c r="H21" s="10">
+        <v>488.45420000000001</v>
+      </c>
+      <c r="I21" s="10">
+        <v>572.76130000000001</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.88990599999999997</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.87090380000000001</v>
+      </c>
+      <c r="L21" s="12">
+        <v>30.304819999999999</v>
+      </c>
+      <c r="M21" s="12">
+        <v>112.1979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="7">
+        <v>65256.634052600319</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44154</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44009</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2454</v>
+      </c>
+      <c r="G22" s="5">
+        <v>43937</v>
+      </c>
+      <c r="H22" s="10">
+        <v>38816.1</v>
+      </c>
+      <c r="I22" s="10">
+        <v>40978.629999999997</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.88476239999999995</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0.87834230000000002</v>
+      </c>
+      <c r="L22" s="12">
+        <v>18.758600000000001</v>
+      </c>
+      <c r="M22" s="12">
+        <v>134.3442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2274.852493260541</v>
+      </c>
+      <c r="D23" s="3">
+        <v>43997</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43969</v>
+      </c>
+      <c r="F23" s="7">
+        <v>96</v>
+      </c>
+      <c r="G23" s="5">
+        <v>43923</v>
+      </c>
+      <c r="H23" s="10">
+        <v>84.369839999999996</v>
+      </c>
+      <c r="I23" s="10">
+        <v>103.9813</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.87785690000000005</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.84946509999999997</v>
+      </c>
+      <c r="L23" s="12">
+        <v>20.63597</v>
+      </c>
+      <c r="M23" s="12">
+        <v>45.141379999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="7">
+        <v>35113.102803112131</v>
+      </c>
+      <c r="D24" s="3">
+        <v>44887</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44409</v>
+      </c>
+      <c r="F24" s="7">
+        <v>545</v>
+      </c>
+      <c r="G24" s="5">
+        <v>43941</v>
+      </c>
+      <c r="H24" s="10">
+        <v>3083.788</v>
+      </c>
+      <c r="I24" s="10">
+        <v>3420.7510000000002</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.87227679999999996</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.85832059999999999</v>
+      </c>
+      <c r="L24" s="12">
+        <v>29.895209999999999</v>
+      </c>
+      <c r="M24" s="12">
+        <v>110.4512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10780.19957376823</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43955</v>
+      </c>
+      <c r="E25" s="3">
+        <v>43923</v>
+      </c>
+      <c r="F25" s="7">
+        <v>909</v>
+      </c>
+      <c r="G25" s="5">
+        <v>43890</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3347.4380000000001</v>
+      </c>
+      <c r="I25" s="10">
+        <v>3879.8710000000001</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.8710502</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.85053990000000002</v>
+      </c>
+      <c r="L25" s="12">
+        <v>55.808329999999998</v>
+      </c>
+      <c r="M25" s="12">
+        <v>68.843069999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="7">
+        <v>16425.974195697869</v>
+      </c>
+      <c r="D26" s="3">
+        <v>44220</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44070</v>
+      </c>
+      <c r="F26" s="7">
+        <v>445</v>
+      </c>
+      <c r="G26" s="5">
+        <v>43938</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2487.9229999999998</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2356.6619999999998</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.86730499999999999</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.87430589999999997</v>
+      </c>
+      <c r="L26" s="12">
+        <v>210.2841</v>
+      </c>
+      <c r="M26" s="12">
+        <v>229.0976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7">
+        <v>19187.90668625425</v>
+      </c>
+      <c r="D27" s="3">
+        <v>44598</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44332</v>
+      </c>
+      <c r="F27" s="7">
+        <v>199</v>
+      </c>
+      <c r="G27" s="5">
+        <v>43951</v>
+      </c>
+      <c r="H27" s="10">
+        <v>358.82760000000002</v>
+      </c>
+      <c r="I27" s="10">
+        <v>395.714</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.86232759999999997</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0.84817529999999997</v>
+      </c>
+      <c r="L27" s="12">
+        <v>61.425440000000002</v>
+      </c>
+      <c r="M27" s="12">
+        <v>147.60720000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8528.2313716944591</v>
+      </c>
+      <c r="D28" s="3">
+        <v>44026</v>
+      </c>
+      <c r="E28" s="3">
+        <v>43973</v>
+      </c>
+      <c r="F28" s="7">
+        <v>408</v>
+      </c>
+      <c r="G28" s="5">
+        <v>43917</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1338.8140000000001</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1563.8710000000001</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.85185029999999995</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.82694610000000002</v>
+      </c>
+      <c r="L28" s="12">
+        <v>20.1129</v>
+      </c>
+      <c r="M28" s="12">
+        <v>59.313029999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="7">
+        <v>27693.83799851338</v>
+      </c>
+      <c r="D29" s="3">
+        <v>44080</v>
+      </c>
+      <c r="E29" s="3">
+        <v>43994</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1169</v>
+      </c>
+      <c r="G29" s="5">
+        <v>43931</v>
+      </c>
+      <c r="H29" s="10">
+        <v>11724.74</v>
+      </c>
+      <c r="I29" s="10">
+        <v>9490.973</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0.84385619999999995</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.8736043</v>
+      </c>
+      <c r="L29" s="12">
+        <v>25.913530000000002</v>
+      </c>
+      <c r="M29" s="12">
+        <v>21.826090000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
+        <v>147794.67815436341</v>
+      </c>
+      <c r="D30" s="3">
+        <v>44115</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F30" s="7">
+        <v>7578</v>
+      </c>
+      <c r="G30" s="5">
+        <v>43922</v>
+      </c>
+      <c r="H30" s="10">
+        <v>392585.3</v>
+      </c>
+      <c r="I30" s="10">
+        <v>414258.6</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.84205099999999999</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.83333120000000005</v>
+      </c>
+      <c r="L30" s="12">
+        <v>32.358849999999997</v>
+      </c>
+      <c r="M30" s="12">
+        <v>134.36080000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3887.1270011801362</v>
+      </c>
+      <c r="D31" s="3">
+        <v>43980</v>
+      </c>
+      <c r="E31" s="3">
+        <v>43953</v>
+      </c>
+      <c r="F31" s="7">
+        <v>234</v>
+      </c>
+      <c r="G31" s="5">
+        <v>43916</v>
+      </c>
+      <c r="H31" s="10">
+        <v>514.59630000000004</v>
+      </c>
+      <c r="I31" s="10">
+        <v>663.75530000000003</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0.83355679999999999</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.78531220000000002</v>
+      </c>
+      <c r="L31" s="12">
+        <v>49.418019999999999</v>
+      </c>
+      <c r="M31" s="12">
+        <v>127.8051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="7">
+        <v>135374.9093033754</v>
+      </c>
+      <c r="D32" s="3">
+        <v>44716</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1485</v>
+      </c>
+      <c r="G32" s="5">
+        <v>43942</v>
+      </c>
+      <c r="H32" s="10">
+        <v>12757.87</v>
+      </c>
+      <c r="I32" s="10">
+        <v>12785.5</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0.82928849999999998</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0.82891879999999996</v>
+      </c>
+      <c r="L32" s="12">
+        <v>1040.3879999999999</v>
+      </c>
+      <c r="M32" s="12">
+        <v>1101.4780000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="7">
+        <v>24088.488074408629</v>
+      </c>
+      <c r="D33" s="3">
+        <v>44031</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43979</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1515</v>
+      </c>
+      <c r="G33" s="5">
+        <v>43947</v>
+      </c>
+      <c r="H33" s="10">
+        <v>16824.509999999998</v>
+      </c>
+      <c r="I33" s="10">
+        <v>16902.7</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0.82357939999999996</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0.82275949999999998</v>
+      </c>
+      <c r="L33" s="12">
+        <v>912.30690000000004</v>
+      </c>
+      <c r="M33" s="12">
+        <v>1018.384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="7">
+        <v>22192.784118653381</v>
+      </c>
+      <c r="D34" s="3">
+        <v>44366</v>
+      </c>
+      <c r="E34" s="3">
+        <v>43950</v>
+      </c>
+      <c r="F34" s="7">
+        <v>371</v>
+      </c>
+      <c r="G34" s="5">
+        <v>43939</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1788.922</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1848.3230000000001</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0.81231580000000003</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.80608380000000002</v>
+      </c>
+      <c r="L34" s="12">
+        <v>304.9633</v>
+      </c>
+      <c r="M34" s="12">
+        <v>420.07600000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6796.8718183635492</v>
+      </c>
+      <c r="D35" s="3">
+        <v>43968</v>
+      </c>
+      <c r="E35" s="3">
+        <v>43942</v>
+      </c>
+      <c r="F35" s="7">
+        <v>611</v>
+      </c>
+      <c r="G35" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H35" s="10">
+        <v>2543.2440000000001</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2776.672</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.81153529999999996</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.79423730000000003</v>
+      </c>
+      <c r="L35" s="12">
+        <v>31.848790000000001</v>
+      </c>
+      <c r="M35" s="12">
+        <v>36.772359999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7">
+        <v>13282.155019236079</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44130</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44029</v>
+      </c>
+      <c r="F36" s="7">
+        <v>390</v>
+      </c>
+      <c r="G36" s="5">
+        <v>43929</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1938.749</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1812.6020000000001</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.80912139999999999</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0.82154119999999997</v>
+      </c>
+      <c r="L36" s="12">
+        <v>18.95327</v>
+      </c>
+      <c r="M36" s="12">
+        <v>104.4662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="7">
+        <v>18167.051261379711</v>
+      </c>
+      <c r="D37" s="3">
+        <v>44046</v>
+      </c>
+      <c r="E37" s="3">
+        <v>43977</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1176</v>
+      </c>
+      <c r="G37" s="5">
+        <v>43925</v>
+      </c>
+      <c r="H37" s="10">
+        <v>8807.3729999999996</v>
+      </c>
+      <c r="I37" s="10">
+        <v>10267.98</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.8016778</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.76878820000000003</v>
+      </c>
+      <c r="L37" s="12">
+        <v>37.914990000000003</v>
+      </c>
+      <c r="M37" s="12">
+        <v>137.8673</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="7">
+        <v>8533.6402805928956</v>
+      </c>
+      <c r="D38" s="3">
+        <v>44035</v>
+      </c>
+      <c r="E38" s="3">
+        <v>43940</v>
+      </c>
+      <c r="F38" s="7">
+        <v>425</v>
+      </c>
+      <c r="G38" s="5">
+        <v>43918</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1732.914</v>
+      </c>
+      <c r="I38" s="10">
+        <v>1787.3620000000001</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.79506399999999999</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0.78862489999999996</v>
+      </c>
+      <c r="L38" s="12">
+        <v>187.6532</v>
+      </c>
+      <c r="M38" s="12">
+        <v>211.88149999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="28"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="28"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="22"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="22"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="22"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="28"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="22"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="28"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="22"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="22"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="28"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="22"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="28"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="22"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="28"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="22"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="28"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="22"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="28"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="22"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="28"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="22"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="28"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="22"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M54">
+    <sortCondition descending="1" ref="J1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>